--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>987759.6108495172</v>
+        <v>984911.4212226804</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="G2" t="n">
-        <v>13.86094179307565</v>
+        <v>20.10027865521716</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>22.82047985378968</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>22.82047985378968</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>22.18377097422054</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>20.10027865521795</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20.10027865521716</v>
       </c>
       <c r="I3" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>20.10027865521795</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.82047985378968</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.10027865521717</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>44.00343544142157</v>
       </c>
       <c r="H5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>49.65101377519441</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>23.42006904193213</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>49.79500702712463</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>46.49613729883792</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>17.62325037119972</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>26.23619181829162</v>
       </c>
       <c r="R7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.62325037119972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>55.723394908065</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.38870434448781</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>48.84734916635383</v>
       </c>
       <c r="I8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.63673178547972</v>
+        <v>29.63673178547965</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.57392307749222</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>62.17490796054029</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>51.82194179032359</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>32.65832442698837</v>
+        <v>32.65832442698833</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.2685648207206</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>51.82194179032386</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>20.92219337427577</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>291.9075090929927</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>58.40943379163138</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.49327605227575</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>307.9112864038748</v>
       </c>
       <c r="G14" t="n">
         <v>410.3099034802228</v>
       </c>
       <c r="H14" t="n">
-        <v>288.3419405557222</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>17.98965543945178</v>
@@ -1658,13 +1658,13 @@
         <v>95.24586401568267</v>
       </c>
       <c r="T14" t="n">
-        <v>141.6852771528794</v>
+        <v>201.239718576303</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>91.22478743032302</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.59222600424921</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.9862434029472</v>
       </c>
       <c r="T16" t="n">
         <v>218.3763319019425</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1968686221121</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>132.0070533970759</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>155.9422517106392</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
         <v>323.0728392684691</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.63566166346871</v>
+        <v>63.6356616634688</v>
       </c>
       <c r="T17" t="n">
         <v>169.6295162240891</v>
@@ -1901,7 +1901,7 @@
         <v>219.3360238328296</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>118.4216184097641</v>
       </c>
       <c r="W17" t="n">
         <v>317.6307663651991</v>
@@ -1938,10 +1938,10 @@
         <v>134.6721154434932</v>
       </c>
       <c r="H18" t="n">
-        <v>86.43532762764653</v>
+        <v>86.43532762764654</v>
       </c>
       <c r="I18" t="n">
-        <v>7.546487457097186</v>
+        <v>7.546487457097243</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>91.61092359897563</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
         <v>134.1411635426336</v>
@@ -2020,7 +2020,7 @@
         <v>110.704770451482</v>
       </c>
       <c r="I19" t="n">
-        <v>56.48898768753516</v>
+        <v>31.09464062051066</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3760410507332</v>
+        <v>153.3760410507333</v>
       </c>
       <c r="T19" t="n">
         <v>186.7661295497286</v>
@@ -2065,7 +2065,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998809</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.63566166346868</v>
+        <v>63.63566166346874</v>
       </c>
       <c r="T20" t="n">
-        <v>169.6295162240891</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>41.61558612467567</v>
+        <v>219.3360238328296</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>288.0511346338542</v>
       </c>
       <c r="W20" t="n">
         <v>317.6307663651991</v>
@@ -2175,10 +2175,10 @@
         <v>134.6721154434932</v>
       </c>
       <c r="H21" t="n">
-        <v>86.43532762764653</v>
+        <v>86.43532762764654</v>
       </c>
       <c r="I21" t="n">
-        <v>7.546487457097186</v>
+        <v>7.546487457097243</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.3343947982019</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.98202365203524</v>
+        <v>44.98202365203529</v>
       </c>
       <c r="S22" t="n">
-        <v>153.3760410507332</v>
+        <v>139.4886580192098</v>
       </c>
       <c r="T22" t="n">
         <v>186.7661295497286</v>
@@ -2491,7 +2491,7 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I25" t="n">
         <v>54.52629139453012</v>
@@ -2527,7 +2527,7 @@
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401414</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112654</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464136</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453022</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221588</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.238650242482</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295167</v>
+        <v>60.32014642295168</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545722</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453001</v>
+        <v>54.52629139453267</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221783</v>
+        <v>42.04747230221568</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424832</v>
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943566</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545699</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401414</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295168</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707194</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453002</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221568</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843768</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295192</v>
+        <v>60.32014642295186</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545725</v>
@@ -4138,10 +4138,10 @@
         <v>135.636618746414</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.005270665996</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707174</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453022</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368233</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998781</v>
+        <v>186.974450999881</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.77209044364367</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="C2" t="n">
-        <v>22.77209044364367</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="D2" t="n">
-        <v>22.77209044364367</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="E2" t="n">
-        <v>22.77209044364367</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="F2" t="n">
-        <v>15.8265896944402</v>
+        <v>45.17993991255156</v>
       </c>
       <c r="G2" t="n">
-        <v>1.825638388303175</v>
+        <v>24.87662813960493</v>
       </c>
       <c r="H2" t="n">
-        <v>1.825638388303175</v>
+        <v>1.825638388303104</v>
       </c>
       <c r="I2" t="n">
-        <v>1.825638388303175</v>
+        <v>1.825638388303104</v>
       </c>
       <c r="J2" t="n">
-        <v>24.41791344355496</v>
+        <v>1.825638388303104</v>
       </c>
       <c r="K2" t="n">
-        <v>24.41791344355496</v>
+        <v>1.825638388303104</v>
       </c>
       <c r="L2" t="n">
-        <v>24.41791344355496</v>
+        <v>1.825638388303104</v>
       </c>
       <c r="M2" t="n">
-        <v>47.01018849880674</v>
+        <v>24.41791344355402</v>
       </c>
       <c r="N2" t="n">
-        <v>69.60246355405852</v>
+        <v>47.01018849880494</v>
       </c>
       <c r="O2" t="n">
-        <v>91.28191941515873</v>
+        <v>68.68964435990429</v>
       </c>
       <c r="P2" t="n">
-        <v>91.28191941515873</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="Q2" t="n">
-        <v>91.28191941515873</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="R2" t="n">
-        <v>68.23092966385602</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="S2" t="n">
-        <v>45.17993991255331</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="T2" t="n">
-        <v>22.77209044364367</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="U2" t="n">
-        <v>22.77209044364367</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="V2" t="n">
-        <v>22.77209044364367</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="W2" t="n">
-        <v>22.77209044364367</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="X2" t="n">
-        <v>22.77209044364367</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.77209044364367</v>
+        <v>91.28191941515522</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="C3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="D3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="E3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="F3" t="n">
-        <v>47.92761789090859</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="G3" t="n">
-        <v>24.87662813960588</v>
+        <v>45.17993991255156</v>
       </c>
       <c r="H3" t="n">
-        <v>24.87662813960588</v>
+        <v>24.87662813960493</v>
       </c>
       <c r="I3" t="n">
-        <v>1.825638388303175</v>
+        <v>1.825638388303104</v>
       </c>
       <c r="J3" t="n">
-        <v>1.825638388303175</v>
+        <v>1.825638388303104</v>
       </c>
       <c r="K3" t="n">
-        <v>1.825638388303175</v>
+        <v>1.825638388303104</v>
       </c>
       <c r="L3" t="n">
-        <v>24.41791344355496</v>
+        <v>10.30379707090092</v>
       </c>
       <c r="M3" t="n">
-        <v>32.8960721261531</v>
+        <v>32.89607212615184</v>
       </c>
       <c r="N3" t="n">
-        <v>55.48834718140488</v>
+        <v>55.48834718140275</v>
       </c>
       <c r="O3" t="n">
-        <v>78.08062223665667</v>
+        <v>78.08062223665367</v>
       </c>
       <c r="P3" t="n">
-        <v>91.28191941515873</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="Q3" t="n">
-        <v>91.28191941515873</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="R3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="S3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="T3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="U3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="V3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="W3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="X3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="Y3" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="C4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="D4" t="n">
-        <v>47.92761789090859</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="E4" t="n">
-        <v>24.87662813960588</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="F4" t="n">
-        <v>24.87662813960588</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="G4" t="n">
-        <v>24.87662813960588</v>
+        <v>47.92761789090675</v>
       </c>
       <c r="H4" t="n">
-        <v>24.87662813960588</v>
+        <v>24.87662813960493</v>
       </c>
       <c r="I4" t="n">
-        <v>24.87662813960588</v>
+        <v>24.87662813960493</v>
       </c>
       <c r="J4" t="n">
-        <v>1.825638388303175</v>
+        <v>1.825638388303104</v>
       </c>
       <c r="K4" t="n">
-        <v>1.825638388303175</v>
+        <v>24.41791344355402</v>
       </c>
       <c r="L4" t="n">
-        <v>24.41791344355496</v>
+        <v>47.01018849880494</v>
       </c>
       <c r="M4" t="n">
-        <v>24.41791344355496</v>
+        <v>69.60246355405584</v>
       </c>
       <c r="N4" t="n">
-        <v>46.09736930465515</v>
+        <v>69.60246355405584</v>
       </c>
       <c r="O4" t="n">
-        <v>68.68964435990694</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="P4" t="n">
-        <v>91.28191941515873</v>
+        <v>91.28191941515522</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="R4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="S4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="T4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="U4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="V4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="W4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="X4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
       <c r="Y4" t="n">
-        <v>68.23092966385602</v>
+        <v>68.23092966385339</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.07286664965892</v>
+        <v>98.72950204554996</v>
       </c>
       <c r="C5" t="n">
-        <v>75.07286664965892</v>
+        <v>98.72950204554996</v>
       </c>
       <c r="D5" t="n">
-        <v>75.07286664965892</v>
+        <v>98.72950204554996</v>
       </c>
       <c r="E5" t="n">
-        <v>75.07286664965892</v>
+        <v>98.72950204554996</v>
       </c>
       <c r="F5" t="n">
-        <v>68.12736590045544</v>
+        <v>48.43151514946448</v>
       </c>
       <c r="G5" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H5" t="n">
         <v>3.98360056216997</v>
@@ -4571,16 +4571,16 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L5" t="n">
-        <v>19.82590800208273</v>
+        <v>51.28885723793834</v>
       </c>
       <c r="M5" t="n">
-        <v>69.12296495893611</v>
+        <v>100.5859141947917</v>
       </c>
       <c r="N5" t="n">
-        <v>118.4200219157895</v>
+        <v>149.8829711516451</v>
       </c>
       <c r="O5" t="n">
-        <v>156.7444867130883</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="P5" t="n">
         <v>199.1800281084985</v>
@@ -4592,25 +4592,25 @@
         <v>149.0274889416355</v>
       </c>
       <c r="S5" t="n">
+        <v>149.0274889416355</v>
+      </c>
+      <c r="T5" t="n">
+        <v>149.0274889416355</v>
+      </c>
+      <c r="U5" t="n">
+        <v>149.0274889416355</v>
+      </c>
+      <c r="V5" t="n">
+        <v>149.0274889416355</v>
+      </c>
+      <c r="W5" t="n">
         <v>98.72950204554996</v>
       </c>
-      <c r="T5" t="n">
+      <c r="X5" t="n">
         <v>98.72950204554996</v>
       </c>
-      <c r="U5" t="n">
+      <c r="Y5" t="n">
         <v>98.72950204554996</v>
-      </c>
-      <c r="V5" t="n">
-        <v>98.72950204554996</v>
-      </c>
-      <c r="W5" t="n">
-        <v>75.07286664965892</v>
-      </c>
-      <c r="X5" t="n">
-        <v>75.07286664965892</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>75.07286664965892</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="C6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="D6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="E6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F6" t="n">
-        <v>154.8775612504264</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G6" t="n">
-        <v>104.5795743543409</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="H6" t="n">
         <v>54.28158745825545</v>
@@ -4650,10 +4650,10 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
         <v>121.1430747948175</v>
@@ -4668,28 +4668,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084985</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="S6" t="n">
-        <v>199.1800281084985</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1800281084985</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="U6" t="n">
-        <v>199.1800281084985</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="V6" t="n">
-        <v>199.1800281084985</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="W6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="X6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.98360056216997</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="C7" t="n">
-        <v>3.98360056216997</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="D7" t="n">
-        <v>3.98360056216997</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="E7" t="n">
-        <v>3.98360056216997</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="F7" t="n">
-        <v>3.98360056216997</v>
+        <v>72.08285045946729</v>
       </c>
       <c r="G7" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="H7" t="n">
         <v>3.98360056216997</v>
@@ -4726,19 +4726,19 @@
         <v>3.98360056216997</v>
       </c>
       <c r="K7" t="n">
+        <v>3.98360056216997</v>
+      </c>
+      <c r="L7" t="n">
         <v>53.28065751902335</v>
-      </c>
-      <c r="L7" t="n">
-        <v>102.5777144758767</v>
       </c>
       <c r="M7" t="n">
         <v>102.5777144758767</v>
       </c>
       <c r="N7" t="n">
-        <v>102.5777144758767</v>
+        <v>149.8829711516451</v>
       </c>
       <c r="O7" t="n">
-        <v>151.8747714327301</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="P7" t="n">
         <v>199.1800281084985</v>
@@ -4747,28 +4747,28 @@
         <v>172.6788242516383</v>
       </c>
       <c r="R7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="S7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="T7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="U7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="V7" t="n">
-        <v>72.08285045946729</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="W7" t="n">
-        <v>72.08285045946729</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="X7" t="n">
-        <v>21.78486356338181</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.98360056216997</v>
+        <v>172.6788242516383</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192.0243253124951</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="C8" t="n">
-        <v>192.0243253124951</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="D8" t="n">
-        <v>192.0243253124951</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="E8" t="n">
-        <v>192.0243253124951</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7380678296012</v>
+        <v>71.83371332599555</v>
       </c>
       <c r="G8" t="n">
-        <v>122.2141240472903</v>
+        <v>58.30976954368463</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2141240472903</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687528</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773371</v>
+        <v>97.73708609773399</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083924</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320668</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416789</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R8" t="n">
-        <v>418.5145477870879</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="S8" t="n">
-        <v>305.2694365497915</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="T8" t="n">
-        <v>305.2694365497915</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="U8" t="n">
-        <v>305.2694365497915</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="V8" t="n">
-        <v>305.2694365497915</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="W8" t="n">
-        <v>305.2694365497915</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="X8" t="n">
-        <v>192.0243253124951</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="Y8" t="n">
-        <v>192.0243253124951</v>
+        <v>192.0243253124956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.969012809993874</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="C9" t="n">
-        <v>8.969012809993874</v>
+        <v>335.205529262398</v>
       </c>
       <c r="D9" t="n">
-        <v>8.969012809993874</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="E9" t="n">
-        <v>8.969012809993874</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993874</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387147</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>202.9276458275457</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640687</v>
+        <v>341.1718347265721</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953186</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>411.5072838557621</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S9" t="n">
-        <v>411.5072838557621</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T9" t="n">
-        <v>411.5072838557621</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U9" t="n">
-        <v>298.2621726184657</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V9" t="n">
-        <v>185.0170613811694</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="W9" t="n">
-        <v>185.0170613811694</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="X9" t="n">
-        <v>122.2141240472903</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.969012809993874</v>
+        <v>448.4506404996946</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>434.0379487615921</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="C10" t="n">
-        <v>320.7928375242957</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="D10" t="n">
-        <v>268.4474417764941</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="E10" t="n">
-        <v>155.2023305391977</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="F10" t="n">
-        <v>41.95721930190132</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="G10" t="n">
-        <v>41.95721930190132</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="H10" t="n">
-        <v>41.95721930190132</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="I10" t="n">
-        <v>41.95721930190132</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K10" t="n">
-        <v>85.67486684193844</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
-        <v>115.4760399286711</v>
+        <v>115.4760399286714</v>
       </c>
       <c r="M10" t="n">
-        <v>226.4675734523453</v>
+        <v>226.4675734523458</v>
       </c>
       <c r="N10" t="n">
-        <v>337.4591069760195</v>
+        <v>337.4591069760202</v>
       </c>
       <c r="O10" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="P10" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q10" t="n">
-        <v>434.0379487615921</v>
+        <v>434.037948761593</v>
       </c>
       <c r="R10" t="n">
-        <v>434.0379487615921</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="S10" t="n">
-        <v>434.0379487615921</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="T10" t="n">
-        <v>434.0379487615921</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="U10" t="n">
-        <v>434.0379487615921</v>
+        <v>268.4474417764945</v>
       </c>
       <c r="V10" t="n">
-        <v>434.0379487615921</v>
+        <v>268.4474417764945</v>
       </c>
       <c r="W10" t="n">
-        <v>434.0379487615921</v>
+        <v>268.4474417764945</v>
       </c>
       <c r="X10" t="n">
-        <v>434.0379487615921</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="Y10" t="n">
-        <v>434.0379487615921</v>
+        <v>41.9572193019013</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1544.306735920717</v>
+        <v>1274.245689520978</v>
       </c>
       <c r="C11" t="n">
-        <v>1175.344218980306</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="D11" t="n">
-        <v>817.0785203735552</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E11" t="n">
-        <v>817.0785203735552</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2988.203876859604</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2657.140989516033</v>
+        <v>2777.219275092106</v>
       </c>
       <c r="W11" t="n">
-        <v>2304.372334245919</v>
+        <v>2424.450619821991</v>
       </c>
       <c r="X11" t="n">
-        <v>1930.906575984839</v>
+        <v>2050.984861560912</v>
       </c>
       <c r="Y11" t="n">
-        <v>1930.906575984839</v>
+        <v>1660.8455295851</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.2351809199102</v>
+        <v>423.5412774992672</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2351809199102</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2351809199102</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3220873375171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279953</v>
+        <v>315.621931827995</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5215,34 +5215,34 @@
         <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1735.608663915318</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1446.505797040962</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1446.505797040962</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1157.088627004001</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>929.0990761059841</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.88364575015</v>
+        <v>423.5412774992672</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2329.314933517564</v>
+        <v>1938.096044736191</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.352416577152</v>
+        <v>1569.133527795779</v>
       </c>
       <c r="D14" t="n">
-        <v>1602.086717970401</v>
+        <v>1210.867829189029</v>
       </c>
       <c r="E14" t="n">
-        <v>1216.298465372157</v>
+        <v>825.0795765907847</v>
       </c>
       <c r="F14" t="n">
-        <v>805.3125605825494</v>
+        <v>514.0580751727292</v>
       </c>
       <c r="G14" t="n">
-        <v>390.8581126227285</v>
+        <v>99.60362721290818</v>
       </c>
       <c r="H14" t="n">
-        <v>99.60362721290819</v>
+        <v>99.60362721290818</v>
       </c>
       <c r="I14" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J14" t="n">
-        <v>321.7197547946562</v>
+        <v>321.7197547946558</v>
       </c>
       <c r="K14" t="n">
-        <v>732.5869425049091</v>
+        <v>732.5869425049082</v>
       </c>
       <c r="L14" t="n">
-        <v>1279.205782079391</v>
+        <v>1279.20578207939</v>
       </c>
       <c r="M14" t="n">
-        <v>1919.094000724847</v>
+        <v>1919.094000724846</v>
       </c>
       <c r="N14" t="n">
-        <v>2573.950088109355</v>
+        <v>2573.950088109354</v>
       </c>
       <c r="O14" t="n">
         <v>3178.976860646706</v>
       </c>
       <c r="P14" t="n">
-        <v>3660.852212359284</v>
+        <v>3660.852212359283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3974.547786707331</v>
+        <v>3974.54778670733</v>
       </c>
       <c r="R14" t="n">
-        <v>4071.612904107441</v>
+        <v>4071.61290410744</v>
       </c>
       <c r="S14" t="n">
-        <v>3975.404960657257</v>
+        <v>3975.404960657256</v>
       </c>
       <c r="T14" t="n">
-        <v>3832.288519088691</v>
+        <v>3772.132517650889</v>
       </c>
       <c r="U14" t="n">
-        <v>3832.288519088691</v>
+        <v>3772.132517650889</v>
       </c>
       <c r="V14" t="n">
-        <v>3832.288519088691</v>
+        <v>3441.069630307318</v>
       </c>
       <c r="W14" t="n">
-        <v>3479.519863818577</v>
+        <v>3088.300975037204</v>
       </c>
       <c r="X14" t="n">
-        <v>3106.054105557497</v>
+        <v>2714.835216776124</v>
       </c>
       <c r="Y14" t="n">
-        <v>2715.914773581685</v>
+        <v>2324.695884800312</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5340,40 @@
         <v>618.1678372508577</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9303822454023</v>
+        <v>458.9303822454021</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3958242722872</v>
+        <v>312.3958242722871</v>
       </c>
       <c r="G15" t="n">
-        <v>176.3633844303749</v>
+        <v>176.3633844303748</v>
       </c>
       <c r="H15" t="n">
-        <v>89.05497268527733</v>
+        <v>89.05497268527732</v>
       </c>
       <c r="I15" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J15" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="K15" t="n">
-        <v>372.0282999172189</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="L15" t="n">
-        <v>809.0930810985877</v>
+        <v>518.4970392635176</v>
       </c>
       <c r="M15" t="n">
-        <v>1338.483933895593</v>
+        <v>1047.887892060523</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.294832230236</v>
+        <v>1605.698790395166</v>
       </c>
       <c r="O15" t="n">
-        <v>2185.039500429579</v>
+        <v>2093.766989968045</v>
       </c>
       <c r="P15" t="n">
-        <v>2557.424193196089</v>
+        <v>2466.151682734555</v>
       </c>
       <c r="Q15" t="n">
         <v>2557.424193196089</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.646575407197</v>
+        <v>1006.466241400214</v>
       </c>
       <c r="C16" t="n">
-        <v>631.646575407197</v>
+        <v>837.5300584723067</v>
       </c>
       <c r="D16" t="n">
-        <v>539.5003254775778</v>
+        <v>687.4134190599709</v>
       </c>
       <c r="E16" t="n">
         <v>539.5003254775778</v>
@@ -5428,10 +5428,10 @@
         <v>225.1847558636599</v>
       </c>
       <c r="H16" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="I16" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J16" t="n">
         <v>145.7639349251848</v>
@@ -5458,28 +5458,28 @@
         <v>2211.566148063616</v>
       </c>
       <c r="R16" t="n">
-        <v>2134.20026321084</v>
+        <v>2211.566148063616</v>
       </c>
       <c r="S16" t="n">
-        <v>2134.20026321084</v>
+        <v>2024.711356747508</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.618109774534</v>
+        <v>1804.129203311202</v>
       </c>
       <c r="U16" t="n">
-        <v>1624.530363691592</v>
+        <v>1804.129203311202</v>
       </c>
       <c r="V16" t="n">
-        <v>1369.845875485705</v>
+        <v>1549.444715105315</v>
       </c>
       <c r="W16" t="n">
-        <v>1080.428705448745</v>
+        <v>1549.444715105315</v>
       </c>
       <c r="X16" t="n">
-        <v>852.4391545507272</v>
+        <v>1321.455164207298</v>
       </c>
       <c r="Y16" t="n">
-        <v>631.646575407197</v>
+        <v>1188.114706230453</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1940.050986789392</v>
+        <v>2119.566580433993</v>
       </c>
       <c r="C17" t="n">
-        <v>1782.533560819049</v>
+        <v>1782.53356081905</v>
       </c>
       <c r="D17" t="n">
         <v>1456.197359537768</v>
@@ -5501,64 +5501,64 @@
         <v>1102.338604264992</v>
       </c>
       <c r="F17" t="n">
-        <v>723.2821968008531</v>
+        <v>723.2821968008536</v>
       </c>
       <c r="G17" t="n">
-        <v>340.7572461665007</v>
+        <v>340.7572461665006</v>
       </c>
       <c r="H17" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="I17" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J17" t="n">
-        <v>321.7197547946557</v>
+        <v>321.7197547946562</v>
       </c>
       <c r="K17" t="n">
-        <v>732.5869425049084</v>
+        <v>732.5869425049095</v>
       </c>
       <c r="L17" t="n">
         <v>1279.20578207939</v>
       </c>
       <c r="M17" t="n">
-        <v>1919.094000724846</v>
+        <v>1919.094000724845</v>
       </c>
       <c r="N17" t="n">
-        <v>2573.950088109355</v>
+        <v>2573.950088109353</v>
       </c>
       <c r="O17" t="n">
-        <v>3178.976860646707</v>
+        <v>3178.976860646705</v>
       </c>
       <c r="P17" t="n">
-        <v>3660.852212359285</v>
+        <v>3660.852212359282</v>
       </c>
       <c r="Q17" t="n">
-        <v>3974.547786707332</v>
+        <v>3974.54778670733</v>
       </c>
       <c r="R17" t="n">
-        <v>4071.612904107442</v>
+        <v>4071.61290410744</v>
       </c>
       <c r="S17" t="n">
-        <v>4007.334457982726</v>
+        <v>4007.334457982724</v>
       </c>
       <c r="T17" t="n">
-        <v>3835.991512301828</v>
+        <v>3835.991512301826</v>
       </c>
       <c r="U17" t="n">
-        <v>3614.439973076747</v>
+        <v>3614.439973076745</v>
       </c>
       <c r="V17" t="n">
-        <v>3315.306583058645</v>
+        <v>3494.822176703246</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.467425114</v>
+        <v>3173.983018758601</v>
       </c>
       <c r="X17" t="n">
-        <v>2652.931164178388</v>
+        <v>2832.44675782299</v>
       </c>
       <c r="Y17" t="n">
-        <v>2294.721329528045</v>
+        <v>2474.236923172647</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5577,40 @@
         <v>618.1678372508577</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9303822454021</v>
+        <v>458.9303822454023</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3958242722871</v>
+        <v>312.3958242722872</v>
       </c>
       <c r="G18" t="n">
-        <v>176.3633844303748</v>
+        <v>176.3633844303749</v>
       </c>
       <c r="H18" t="n">
-        <v>89.05497268527731</v>
+        <v>89.05497268527733</v>
       </c>
       <c r="I18" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J18" t="n">
-        <v>205.7279980329772</v>
+        <v>205.727998032977</v>
       </c>
       <c r="K18" t="n">
-        <v>496.3240398680474</v>
+        <v>496.324039868047</v>
       </c>
       <c r="L18" t="n">
-        <v>933.3888210494165</v>
+        <v>933.3888210494157</v>
       </c>
       <c r="M18" t="n">
-        <v>1462.779673846422</v>
+        <v>1462.779673846421</v>
       </c>
       <c r="N18" t="n">
-        <v>1986.029391449522</v>
+        <v>2020.590572181064</v>
       </c>
       <c r="O18" t="n">
-        <v>1986.029391449522</v>
+        <v>2185.039500429579</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.414084216033</v>
+        <v>2557.424193196089</v>
       </c>
       <c r="Q18" t="n">
         <v>2557.424193196089</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>846.2979853469089</v>
+        <v>846.2979853469079</v>
       </c>
       <c r="C19" t="n">
-        <v>709.2912997444707</v>
+        <v>709.2912997444696</v>
       </c>
       <c r="D19" t="n">
-        <v>616.7550132808593</v>
+        <v>591.1041576576019</v>
       </c>
       <c r="E19" t="n">
-        <v>500.7714170239348</v>
+        <v>475.1205614006774</v>
       </c>
       <c r="F19" t="n">
-        <v>385.810966851493</v>
+        <v>360.1601112282357</v>
       </c>
       <c r="G19" t="n">
-        <v>250.314842060954</v>
+        <v>224.6639864376966</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4918416049116</v>
+        <v>112.8409859816545</v>
       </c>
       <c r="I19" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J19" t="n">
-        <v>177.0580352538767</v>
+        <v>177.0580352538764</v>
       </c>
       <c r="K19" t="n">
-        <v>443.9056792595103</v>
+        <v>443.9056792595094</v>
       </c>
       <c r="L19" t="n">
-        <v>832.1536518510003</v>
+        <v>832.1536518509993</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.194684949353</v>
+        <v>1250.194684949352</v>
       </c>
       <c r="N19" t="n">
-        <v>1664.474356830195</v>
+        <v>1664.474356830193</v>
       </c>
       <c r="O19" t="n">
-        <v>2033.501324983836</v>
+        <v>2033.501324983833</v>
       </c>
       <c r="P19" t="n">
-        <v>2330.263556663728</v>
+        <v>2330.263556663726</v>
       </c>
       <c r="Q19" t="n">
-        <v>2461.918950693151</v>
+        <v>2461.918950693149</v>
       </c>
       <c r="R19" t="n">
-        <v>2461.918950693151</v>
+        <v>2461.918950693149</v>
       </c>
       <c r="S19" t="n">
-        <v>2306.993656702512</v>
+        <v>2306.99365670251</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.341000591674</v>
+        <v>2118.341000591673</v>
       </c>
       <c r="U19" t="n">
-        <v>1861.182751834201</v>
+        <v>1861.1827518342</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.427760953782</v>
+        <v>1638.427760953781</v>
       </c>
       <c r="W19" t="n">
-        <v>1380.94008824229</v>
+        <v>1380.940088242289</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.880034669742</v>
+        <v>1184.880034669741</v>
       </c>
       <c r="Y19" t="n">
-        <v>996.0169528516801</v>
+        <v>996.0169528516791</v>
       </c>
     </row>
     <row r="20">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2119.566580433992</v>
+        <v>2119.566580433993</v>
       </c>
       <c r="C20" t="n">
-        <v>1782.533560819049</v>
+        <v>1782.53356081905</v>
       </c>
       <c r="D20" t="n">
-        <v>1456.197359537767</v>
+        <v>1456.197359537768</v>
       </c>
       <c r="E20" t="n">
         <v>1102.338604264992</v>
       </c>
       <c r="F20" t="n">
-        <v>723.2821968008529</v>
+        <v>723.2821968008534</v>
       </c>
       <c r="G20" t="n">
         <v>340.7572461665006</v>
       </c>
       <c r="H20" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="I20" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J20" t="n">
-        <v>321.7197547946558</v>
+        <v>321.7197547946555</v>
       </c>
       <c r="K20" t="n">
-        <v>732.5869425049084</v>
+        <v>732.5869425049077</v>
       </c>
       <c r="L20" t="n">
-        <v>1279.20578207939</v>
+        <v>1279.205782079389</v>
       </c>
       <c r="M20" t="n">
-        <v>1919.094000724846</v>
+        <v>1919.094000724845</v>
       </c>
       <c r="N20" t="n">
-        <v>2573.950088109355</v>
+        <v>2573.950088109353</v>
       </c>
       <c r="O20" t="n">
-        <v>3178.976860646707</v>
+        <v>3178.976860646705</v>
       </c>
       <c r="P20" t="n">
-        <v>3660.852212359285</v>
+        <v>3660.852212359283</v>
       </c>
       <c r="Q20" t="n">
-        <v>3974.547786707333</v>
+        <v>3974.54778670733</v>
       </c>
       <c r="R20" t="n">
-        <v>4071.612904107442</v>
+        <v>4071.61290410744</v>
       </c>
       <c r="S20" t="n">
-        <v>4007.334457982726</v>
+        <v>4007.334457982724</v>
       </c>
       <c r="T20" t="n">
-        <v>3835.991512301828</v>
+        <v>4007.334457982724</v>
       </c>
       <c r="U20" t="n">
-        <v>3793.955566721348</v>
+        <v>3785.782918757644</v>
       </c>
       <c r="V20" t="n">
         <v>3494.822176703246</v>
@@ -5814,40 +5814,40 @@
         <v>618.1678372508577</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9303822454021</v>
+        <v>458.9303822454023</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3958242722871</v>
+        <v>312.3958242722872</v>
       </c>
       <c r="G21" t="n">
-        <v>176.3633844303748</v>
+        <v>176.3633844303749</v>
       </c>
       <c r="H21" t="n">
-        <v>89.05497268527731</v>
+        <v>89.05497268527733</v>
       </c>
       <c r="I21" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J21" t="n">
-        <v>81.43225808214883</v>
+        <v>205.727998032977</v>
       </c>
       <c r="K21" t="n">
-        <v>372.028299917219</v>
+        <v>496.324039868047</v>
       </c>
       <c r="L21" t="n">
-        <v>809.0930810985881</v>
+        <v>933.3888210494157</v>
       </c>
       <c r="M21" t="n">
-        <v>940.1502935419998</v>
+        <v>1462.779673846421</v>
       </c>
       <c r="N21" t="n">
-        <v>1497.961191876643</v>
+        <v>2020.590572181064</v>
       </c>
       <c r="O21" t="n">
-        <v>1986.029391449522</v>
+        <v>2508.658771753943</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.414084216033</v>
+        <v>2557.424193196089</v>
       </c>
       <c r="Q21" t="n">
         <v>2557.424193196089</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>814.8892574474019</v>
+        <v>814.8892574474016</v>
       </c>
       <c r="C22" t="n">
-        <v>677.8825718449636</v>
+        <v>677.8825718449634</v>
       </c>
       <c r="D22" t="n">
-        <v>559.6954297580965</v>
+        <v>559.6954297580963</v>
       </c>
       <c r="E22" t="n">
-        <v>443.711833501172</v>
+        <v>443.7118335011718</v>
       </c>
       <c r="F22" t="n">
-        <v>328.7513833287302</v>
+        <v>328.7513833287301</v>
       </c>
       <c r="G22" t="n">
         <v>193.2552585381912</v>
       </c>
       <c r="H22" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="I22" t="n">
-        <v>81.43225808214883</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J22" t="n">
-        <v>177.0580352538767</v>
+        <v>177.0580352538766</v>
       </c>
       <c r="K22" t="n">
-        <v>443.9056792595102</v>
+        <v>443.90567925951</v>
       </c>
       <c r="L22" t="n">
-        <v>832.1536518510005</v>
+        <v>832.1536518509999</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.194684949353</v>
+        <v>1250.194684949352</v>
       </c>
       <c r="N22" t="n">
-        <v>1664.474356830195</v>
+        <v>1664.474356830193</v>
       </c>
       <c r="O22" t="n">
-        <v>2033.501324983836</v>
+        <v>2033.501324983834</v>
       </c>
       <c r="P22" t="n">
-        <v>2330.263556663728</v>
+        <v>2330.263556663726</v>
       </c>
       <c r="Q22" t="n">
-        <v>2461.918950693152</v>
+        <v>2461.918950693149</v>
       </c>
       <c r="R22" t="n">
-        <v>2416.482563165843</v>
+        <v>2416.482563165841</v>
       </c>
       <c r="S22" t="n">
-        <v>2261.557269175204</v>
+        <v>2275.584928803003</v>
       </c>
       <c r="T22" t="n">
-        <v>2072.904613064366</v>
+        <v>2086.932272692166</v>
       </c>
       <c r="U22" t="n">
-        <v>1815.746364306894</v>
+        <v>1829.774023934693</v>
       </c>
       <c r="V22" t="n">
-        <v>1592.991373426475</v>
+        <v>1607.019033054275</v>
       </c>
       <c r="W22" t="n">
-        <v>1335.503700714983</v>
+        <v>1349.531360342783</v>
       </c>
       <c r="X22" t="n">
-        <v>1139.443647142435</v>
+        <v>1153.471306770234</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.5805653243734</v>
+        <v>964.6082249521727</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -6020,10 +6020,10 @@
         <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
@@ -6066,28 +6066,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1968.593900456</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>2474.99885540425</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
@@ -6145,19 +6145,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443605</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.382767690278</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313935</v>
@@ -6166,13 +6166,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127669</v>
@@ -6209,13 +6209,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6224,25 +6224,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767228</v>
@@ -6251,25 +6251,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1968.593900456</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>2474.99885540425</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
         <v>2555.644190323788</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
@@ -6385,10 +6385,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6409,25 +6409,25 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162837</v>
@@ -6494,19 +6494,19 @@
         <v>4017.391409283563</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X29" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>235.0538732027197</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>688.8525027970471</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.626315333739</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2322.031270281989</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502091</v>
+        <v>872.8624197502118</v>
       </c>
       <c r="C31" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477735</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609066</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039821</v>
       </c>
       <c r="F31" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315409</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749468</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897957</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511619</v>
@@ -6625,13 +6625,13 @@
         <v>459.5287020443614</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313936</v>
@@ -6643,28 +6643,28 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6701,22 +6701,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6728,7 +6728,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400162</v>
@@ -6743,7 +6743,7 @@
         <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
         <v>2168.542634771632</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
@@ -6859,19 +6859,19 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
@@ -6889,19 +6889,19 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
         <v>1458.093420216582</v>
@@ -6923,10 +6923,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511622</v>
@@ -6938,22 +6938,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
         <v>4142.907144767228</v>
@@ -6968,10 +6968,10 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
@@ -7014,28 +7014,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K36" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L36" t="n">
-        <v>326.5159252754111</v>
+        <v>538.7790385694436</v>
       </c>
       <c r="M36" t="n">
-        <v>875.4343898857002</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.289737812102</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G37" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749437</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443606</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7114,7 +7114,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352542</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216582</v>
@@ -7160,25 +7160,25 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
@@ -7187,37 +7187,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1968.593900456</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2474.99885540425</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7354,10 +7354,10 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127669</v>
@@ -7366,13 +7366,13 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6694118551806</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551806</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.862419750212</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477738</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609068</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039825</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
         <v>342.800273616284</v>
@@ -7655,10 +7655,10 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746741</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233289</v>
@@ -7673,10 +7673,10 @@
         <v>4249.020448755813</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400163</v>
@@ -7691,7 +7691,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511626</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511626</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2171.957806054385</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502083</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477725</v>
+        <v>735.8557341477699</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443609</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313935</v>
@@ -7849,7 +7849,7 @@
         <v>1211.444469073041</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.49577471533703</v>
+        <v>58.67529486154778</v>
       </c>
       <c r="K2" t="n">
-        <v>36.68802846506728</v>
+        <v>36.6880284650679</v>
       </c>
       <c r="L2" t="n">
-        <v>8.240236561098612</v>
+        <v>8.240236561099408</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.070292720288748</v>
+        <v>9.070292720288741</v>
       </c>
       <c r="P2" t="n">
-        <v>23.90096867847541</v>
+        <v>46.72144853226493</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.60797209390756</v>
+        <v>66.60797209390813</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>53.95452987271125</v>
+        <v>53.9545298727115</v>
       </c>
       <c r="K3" t="n">
-        <v>13.27261790462883</v>
+        <v>13.27261790462926</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.50957460172278</v>
+        <v>41.50957460172312</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>53.8738377554554</v>
+        <v>76.69431760924445</v>
       </c>
       <c r="L4" t="n">
-        <v>61.55256760073856</v>
+        <v>61.55256760073802</v>
       </c>
       <c r="M4" t="n">
-        <v>37.54636092591301</v>
+        <v>60.36684077970217</v>
       </c>
       <c r="N4" t="n">
-        <v>50.61513779258246</v>
+        <v>28.71669752884523</v>
       </c>
       <c r="O4" t="n">
-        <v>69.86326958781837</v>
+        <v>68.94122999776573</v>
       </c>
       <c r="P4" t="n">
-        <v>82.32822966176172</v>
+        <v>59.5077498079723</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8219,7 +8219,7 @@
         <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>31.78075680389457</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>11.08342642379245</v>
       </c>
       <c r="P5" t="n">
-        <v>44.67424062394</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
         <v>50.01861771953256</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>95.66285413274987</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L7" t="n">
         <v>78.28218310839884</v>
       </c>
       <c r="M7" t="n">
-        <v>26.74453801706942</v>
+        <v>76.53954504419404</v>
       </c>
       <c r="N7" t="n">
-        <v>18.17171782551226</v>
+        <v>65.95480537679344</v>
       </c>
       <c r="O7" t="n">
         <v>87.09780125070267</v>
       </c>
       <c r="P7" t="n">
-        <v>98.95658856384321</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946475</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771693</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867677</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821503</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>37.34101893964851</v>
+        <v>114.8216795779765</v>
       </c>
       <c r="M10" t="n">
-        <v>116.4537900083356</v>
+        <v>116.4537900083357</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4136727881175</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O10" t="n">
-        <v>129.2143182548923</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037932</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>230.0729785846262</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>35.84474937714225</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8373873069964</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23464,16 +23464,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.091377299819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>98.96475933783663</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>288.3419405557222</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>59.55444142342364</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.9462261850435</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>57.39068558788934</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>76.59222600424921</v>
       </c>
       <c r="S16" t="n">
-        <v>184.9862434029472</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1968686221121</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>86.57759995501885</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>177.7204377081545</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>177.7204377081569</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>25.39434706702281</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>25.39434706702536</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.98202365203527</v>
+        <v>44.98202365203536</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>169.6295162240891</v>
       </c>
       <c r="U20" t="n">
-        <v>177.7204377081539</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.090921484066769</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.8873830315215</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>56.48898768753513</v>
+        <v>56.48898768753517</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>13.88738303152341</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.35003119794419e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.877698079828406e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-2.650324404385174e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1.463149601477198e-12</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-2.250999386887997e-12</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.472688720445149e-12</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>986304.1949052787</v>
+        <v>986304.1949052789</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894600.6201802526</v>
+        <v>894600.6201802525</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958926.0966626708</v>
+        <v>958926.0966626705</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958926.0966626707</v>
+        <v>958926.0966626706</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977532.9028557919</v>
+        <v>977532.902855792</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>977532.9028557919</v>
+        <v>977532.902855792</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719628</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="F2" t="n">
-        <v>431515.1346605288</v>
+        <v>431515.1346605287</v>
       </c>
       <c r="G2" t="n">
-        <v>462993.5593221375</v>
+        <v>462993.5593221373</v>
       </c>
       <c r="H2" t="n">
         <v>462993.5593221375</v>
@@ -26335,7 +26335,7 @@
         <v>472099.0176719629</v>
       </c>
       <c r="J2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="K2" t="n">
         <v>472099.017671963</v>
@@ -26347,13 +26347,13 @@
         <v>472099.0176719629</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353244.2765738465</v>
+        <v>353244.276573845</v>
       </c>
       <c r="C3" t="n">
-        <v>43511.74761818917</v>
+        <v>43511.74761819059</v>
       </c>
       <c r="D3" t="n">
-        <v>87233.51607513204</v>
+        <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.857642954</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
         <v>173736.0360376485</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177148</v>
+        <v>25288.16188177093</v>
       </c>
       <c r="H3" t="n">
-        <v>2.557953848736361e-11</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>39037.89416668066</v>
+        <v>39037.8941666813</v>
       </c>
       <c r="J3" t="n">
-        <v>5970.841630864948</v>
+        <v>5970.841630864642</v>
       </c>
       <c r="K3" t="n">
-        <v>6942.380109546844</v>
+        <v>6942.380109547136</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194614</v>
+        <v>41060.19902194625</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383016</v>
+        <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>45679.31917376341</v>
+        <v>45679.31917376327</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>2.149809006368741e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344864.2534998801</v>
+        <v>344864.2534998804</v>
       </c>
       <c r="C4" t="n">
         <v>331736.8656690616</v>
       </c>
       <c r="D4" t="n">
-        <v>304173.8599471606</v>
+        <v>304173.8599471605</v>
       </c>
       <c r="E4" t="n">
         <v>13430.06689216532</v>
@@ -26430,7 +26430,7 @@
         <v>13526.58637257967</v>
       </c>
       <c r="G4" t="n">
-        <v>44851.31807222994</v>
+        <v>44851.31807222991</v>
       </c>
       <c r="H4" t="n">
         <v>44851.31807222997</v>
@@ -26439,25 +26439,25 @@
         <v>44619.42690608389</v>
       </c>
       <c r="J4" t="n">
+        <v>44619.42690608379</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44619.42690608398</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44619.42690608394</v>
+      </c>
+      <c r="M4" t="n">
         <v>44619.42690608389</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>44619.42690608399</v>
       </c>
-      <c r="L4" t="n">
-        <v>44619.42690608388</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44619.42690608386</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44619.42690608387</v>
-      </c>
       <c r="O4" t="n">
-        <v>44619.42690608387</v>
+        <v>44619.42690608399</v>
       </c>
       <c r="P4" t="n">
-        <v>44619.42690608376</v>
+        <v>44619.42690608379</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42833.58292690802</v>
+        <v>42833.58292690793</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172269</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>88963.40690525345</v>
+        <v>88963.40690525343</v>
       </c>
       <c r="G5" t="n">
-        <v>91620.84500680174</v>
+        <v>91620.8450068017</v>
       </c>
       <c r="H5" t="n">
-        <v>91620.84500680174</v>
+        <v>91620.8450068017</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
@@ -26497,13 +26497,13 @@
         <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268843.0953286716</v>
+        <v>-268843.0953286704</v>
       </c>
       <c r="C6" t="n">
-        <v>51543.72119422989</v>
+        <v>51543.72119422855</v>
       </c>
       <c r="D6" t="n">
-        <v>29868.26853794763</v>
+        <v>29868.26853794744</v>
       </c>
       <c r="E6" t="n">
-        <v>-403370.601279954</v>
+        <v>-403718.2202097595</v>
       </c>
       <c r="F6" t="n">
-        <v>155289.1053450471</v>
+        <v>155112.65367978</v>
       </c>
       <c r="G6" t="n">
-        <v>301233.2343613344</v>
+        <v>301193.6454119877</v>
       </c>
       <c r="H6" t="n">
-        <v>326521.3962431058</v>
+        <v>326481.8072937587</v>
       </c>
       <c r="I6" t="n">
-        <v>293335.2624970431</v>
+        <v>293335.2624970424</v>
       </c>
       <c r="J6" t="n">
-        <v>326402.3150328589</v>
+        <v>326402.3150328592</v>
       </c>
       <c r="K6" t="n">
-        <v>325430.7765541769</v>
+        <v>325430.7765541766</v>
       </c>
       <c r="L6" t="n">
-        <v>291312.9576417776</v>
+        <v>291312.9576417774</v>
       </c>
       <c r="M6" t="n">
-        <v>153123.5117254221</v>
+        <v>153123.5117254223</v>
       </c>
       <c r="N6" t="n">
         <v>286693.8374899604</v>
       </c>
       <c r="O6" t="n">
-        <v>332373.1566637236</v>
+        <v>332373.1566637238</v>
       </c>
       <c r="P6" t="n">
-        <v>332373.1566637236</v>
+        <v>332373.1566637235</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
         <v>31.61020235221394</v>
@@ -26707,25 +26707,25 @@
         <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622755</v>
+        <v>358.6466858622742</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985019</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,10 +26750,10 @@
         <v>1241.967466184419</v>
       </c>
       <c r="G3" t="n">
-        <v>1241.96746618442</v>
+        <v>1241.967466184419</v>
       </c>
       <c r="H3" t="n">
-        <v>1241.96746618442</v>
+        <v>1241.967466184419</v>
       </c>
       <c r="I3" t="n">
         <v>1278.159870620123</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>1017.90322602686</v>
@@ -26823,10 +26823,10 @@
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622755</v>
+        <v>358.6466858622742</v>
       </c>
       <c r="C3" t="n">
-        <v>38.21325740529255</v>
+        <v>38.2132574052938</v>
       </c>
       <c r="D3" t="n">
-        <v>79.25580793093388</v>
+        <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.6609493947964</v>
+        <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
         <v>152.1907655911211</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36.19240443570288</v>
+        <v>36.19240443570357</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="C4" t="n">
-        <v>26.97452717333494</v>
+        <v>26.97452717333582</v>
       </c>
       <c r="D4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="F4" t="n">
-        <v>186.5017706245674</v>
+        <v>186.5017706245673</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,28 +27030,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.35188616209234</v>
+        <v>44.3518861620928</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333449</v>
+        <v>26.97452717333537</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779925</v>
+        <v>62.31765309779948</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245674</v>
+        <v>186.5017706245668</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>1.989519660128281e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333494</v>
+        <v>26.97452717333582</v>
       </c>
       <c r="L4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245674</v>
+        <v>186.5017706245673</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>359.9133618096918</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>384.0555658879226</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>393.7606631378585</v>
       </c>
       <c r="H2" t="n">
-        <v>324.7090116772263</v>
+        <v>301.8885318234376</v>
       </c>
       <c r="I2" t="n">
-        <v>154.8910599957109</v>
+        <v>154.8910599957111</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>36.48043756154627</v>
+        <v>59.30091741533627</v>
       </c>
       <c r="S2" t="n">
-        <v>153.3446697160271</v>
+        <v>176.1651495698169</v>
       </c>
       <c r="T2" t="n">
-        <v>194.6006178165958</v>
+        <v>216.7843887908164</v>
       </c>
       <c r="U2" t="n">
         <v>251.2303092500717</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>124.9689337381659</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>113.751608588887</v>
+        <v>113.7516085888879</v>
       </c>
       <c r="H3" t="n">
-        <v>104.7850668566028</v>
+        <v>84.68478820138563</v>
       </c>
       <c r="I3" t="n">
-        <v>40.01599748801348</v>
+        <v>40.01599748801446</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.44110443973672</v>
+        <v>29.44110443973777</v>
       </c>
       <c r="S3" t="n">
-        <v>157.3542209658497</v>
+        <v>157.3542209658498</v>
       </c>
       <c r="T3" t="n">
         <v>197.0553295975817</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>128.5151943629944</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>123.6134827927795</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3442394331333</v>
+        <v>147.2439607779162</v>
       </c>
       <c r="H4" t="n">
-        <v>156.47706662591</v>
+        <v>133.6565867721212</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0012415365631</v>
+        <v>136.0012415365632</v>
       </c>
       <c r="J4" t="n">
-        <v>24.81418754237627</v>
+        <v>24.8141875423773</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.185913832701111</v>
+        <v>9.18591383270217</v>
       </c>
       <c r="R4" t="n">
-        <v>148.2136125529922</v>
+        <v>148.2136125529923</v>
       </c>
       <c r="S4" t="n">
         <v>212.7456849747103</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>369.7038852163564</v>
       </c>
       <c r="H5" t="n">
-        <v>273.3407321982346</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
         <v>148.9685811771479</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.8695009220968</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
         <v>216.1119122710508</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>325.8208996754809</v>
+        <v>299.4459616902884</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27704,13 +27704,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>101.2097702038925</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>86.69488686188784</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
         <v>10.21152625211678</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>155.8274931817798</v>
@@ -27752,10 +27752,10 @@
         <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>186.3044498505873</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>201.899976133795</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>96.63895561944454</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>95.62604099580662</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>149.6520799092355</v>
       </c>
       <c r="H7" t="n">
-        <v>155.8644016137399</v>
+        <v>106.0693945866152</v>
       </c>
       <c r="I7" t="n">
         <v>133.9289553808794</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>95.32019944182534</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S7" t="n">
         <v>211.5447863772357</v>
@@ -27831,16 +27831,16 @@
         <v>286.2799939522351</v>
       </c>
       <c r="V7" t="n">
-        <v>202.3426362967034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>175.9146483619125</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.9614029808951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>351.1526508336464</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8727099068761</v>
+        <v>271.0253607405223</v>
       </c>
       <c r="I8" t="n">
-        <v>24.5724656341046</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519784</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>214.7171693596231</v>
+        <v>102.6045092346994</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535456</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.1252785311299</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>60.59583886339209</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>58.8962494173682</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
@@ -27950,7 +27950,7 @@
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>54.13711731454488</v>
+        <v>54.13711731454486</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27986,19 +27986,19 @@
         <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>113.7613470855988</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>143.5980772429372</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>93.57003565238094</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>55.13416097370441</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.79353122788876</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>34.32130252164575</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>33.30838789800782</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.1324099710516</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>138.6889896488451</v>
+        <v>26.5763295239214</v>
       </c>
       <c r="S10" t="n">
         <v>209.0540751673406</v>
@@ -28065,7 +28065,7 @@
         <v>224.2771565911783</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2721982989959</v>
+        <v>234.4502565086721</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>106.4719932271711</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I17" t="n">
-        <v>17.9896554394517</v>
+        <v>17.98965543945181</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
-        <v>17.9896554394517</v>
+        <v>17.98965543945181</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221639</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.441795722059398</v>
+        <v>1.441795722059393</v>
       </c>
       <c r="H2" t="n">
-        <v>14.76579043854081</v>
+        <v>14.76579043854076</v>
       </c>
       <c r="I2" t="n">
-        <v>55.58482957469499</v>
+        <v>55.58482957469479</v>
       </c>
       <c r="J2" t="n">
-        <v>122.3706096651389</v>
+        <v>122.3706096651385</v>
       </c>
       <c r="K2" t="n">
-        <v>183.4018225799133</v>
+        <v>183.4018225799126</v>
       </c>
       <c r="L2" t="n">
-        <v>227.5261784088886</v>
+        <v>227.5261784088878</v>
       </c>
       <c r="M2" t="n">
-        <v>253.1667130810624</v>
+        <v>253.1667130810615</v>
       </c>
       <c r="N2" t="n">
-        <v>252.2335434503806</v>
+        <v>252.2335434503797</v>
       </c>
       <c r="O2" t="n">
-        <v>242.9263589651356</v>
+        <v>242.9263589651347</v>
       </c>
       <c r="P2" t="n">
-        <v>207.3320270767941</v>
+        <v>207.3320270767934</v>
       </c>
       <c r="Q2" t="n">
-        <v>155.6977177805419</v>
+        <v>155.6977177805414</v>
       </c>
       <c r="R2" t="n">
-        <v>90.56820052581374</v>
+        <v>90.56820052581341</v>
       </c>
       <c r="S2" t="n">
-        <v>32.85492001642857</v>
+        <v>32.85492001642844</v>
       </c>
       <c r="T2" t="n">
-        <v>6.311460773315018</v>
+        <v>6.311460773314995</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1153436577647518</v>
+        <v>0.1153436577647514</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7714287205339511</v>
+        <v>0.7714287205339484</v>
       </c>
       <c r="H3" t="n">
-        <v>7.450377379893687</v>
+        <v>7.450377379893661</v>
       </c>
       <c r="I3" t="n">
-        <v>26.56015550961192</v>
+        <v>26.56015550961182</v>
       </c>
       <c r="J3" t="n">
-        <v>72.88309679395545</v>
+        <v>72.88309679395519</v>
       </c>
       <c r="K3" t="n">
-        <v>124.5688210697302</v>
+        <v>124.5688210697297</v>
       </c>
       <c r="L3" t="n">
-        <v>161.3748596336639</v>
+        <v>147.1181764289629</v>
       </c>
       <c r="M3" t="n">
-        <v>150.6978305711073</v>
+        <v>164.9545137758071</v>
       </c>
       <c r="N3" t="n">
-        <v>154.162191937123</v>
+        <v>154.1621919371221</v>
       </c>
       <c r="O3" t="n">
-        <v>165.4167242982341</v>
+        <v>165.4167242982332</v>
       </c>
       <c r="P3" t="n">
-        <v>147.3090510289788</v>
+        <v>147.3090510289783</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.47219948429874</v>
+        <v>98.4721994842984</v>
       </c>
       <c r="R3" t="n">
-        <v>47.89624985911674</v>
+        <v>47.89624985911657</v>
       </c>
       <c r="S3" t="n">
-        <v>14.32895013798807</v>
+        <v>14.32895013798802</v>
       </c>
       <c r="T3" t="n">
-        <v>3.109399097239915</v>
+        <v>3.109399097239905</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05075188950881259</v>
+        <v>0.05075188950881242</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6467399253254147</v>
+        <v>0.6467399253254125</v>
       </c>
       <c r="H4" t="n">
-        <v>5.750105881529601</v>
+        <v>5.75010588152958</v>
       </c>
       <c r="I4" t="n">
-        <v>19.44923339069521</v>
+        <v>19.44923339069514</v>
       </c>
       <c r="J4" t="n">
-        <v>45.72451272050682</v>
+        <v>45.72451272050666</v>
       </c>
       <c r="K4" t="n">
-        <v>75.13942041507998</v>
+        <v>75.13942041507973</v>
       </c>
       <c r="L4" t="n">
-        <v>96.15258853428941</v>
+        <v>96.15258853428907</v>
       </c>
       <c r="M4" t="n">
-        <v>101.379423021692</v>
+        <v>101.3794230216917</v>
       </c>
       <c r="N4" t="n">
-        <v>98.9688469363883</v>
+        <v>98.96884693638796</v>
       </c>
       <c r="O4" t="n">
-        <v>91.41374871781412</v>
+        <v>91.41374871781379</v>
       </c>
       <c r="P4" t="n">
-        <v>78.22025424117558</v>
+        <v>78.22025424117531</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.1556495652036</v>
+        <v>54.15564956520341</v>
       </c>
       <c r="R4" t="n">
-        <v>29.07977882417728</v>
+        <v>29.07977882417718</v>
       </c>
       <c r="S4" t="n">
-        <v>11.270913062262</v>
+        <v>11.27091306226196</v>
       </c>
       <c r="T4" t="n">
-        <v>2.763343317299499</v>
+        <v>2.763343317299489</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03527672319956811</v>
+        <v>0.035276723199568</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,13 +31370,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
-        <v>181.1367191104579</v>
+        <v>153.0991627102423</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647242</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889108</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137789</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172215</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307194</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L8" t="n">
-        <v>302.048789576915</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M8" t="n">
-        <v>336.0874769754129</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215143</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O8" t="n">
-        <v>322.4930563808908</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P8" t="n">
-        <v>275.240362480537</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567326</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R8" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612408</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508308</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517794</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444353</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I9" t="n">
-        <v>35.2595155368702</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798992</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837909</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>254.2466940469417</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>216.6986083828516</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628786</v>
+        <v>189.3752746148963</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177394</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515091</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S9" t="n">
-        <v>19.02217175778919</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730407</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261822</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071345</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674347</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I10" t="n">
-        <v>25.81952303220729</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968441</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K10" t="n">
-        <v>99.7501524642107</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L10" t="n">
         <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>134.5846540641929</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020391</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O10" t="n">
-        <v>121.3548803218739</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187683</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097379</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832442</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S10" t="n">
-        <v>14.9625228696316</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T10" t="n">
-        <v>3.66843283710321</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493467</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>431.3727943633186</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>580.0339567307518</v>
@@ -32090,13 +32090,13 @@
         <v>694.7870639365084</v>
       </c>
       <c r="O15" t="n">
-        <v>434.2575254538812</v>
+        <v>635.5944258311906</v>
       </c>
       <c r="P15" t="n">
         <v>510.1205617239364</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>232.1762290976718</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.992834034912237</v>
+        <v>4.992834034912234</v>
       </c>
       <c r="H17" t="n">
-        <v>51.13286156004496</v>
+        <v>51.13286156004493</v>
       </c>
       <c r="I17" t="n">
-        <v>192.4862341309542</v>
+        <v>192.4862341309541</v>
       </c>
       <c r="J17" t="n">
-        <v>423.7605476706329</v>
+        <v>423.7605476706326</v>
       </c>
       <c r="K17" t="n">
-        <v>635.107212368468</v>
+        <v>635.1072123684676</v>
       </c>
       <c r="L17" t="n">
-        <v>787.9066569644135</v>
+        <v>787.9066569644131</v>
       </c>
       <c r="M17" t="n">
-        <v>876.697969232784</v>
+        <v>876.6979692327835</v>
       </c>
       <c r="N17" t="n">
-        <v>890.8838589344784</v>
+        <v>890.883858934478</v>
       </c>
       <c r="O17" t="n">
-        <v>841.2363654998198</v>
+        <v>841.2363654998194</v>
       </c>
       <c r="P17" t="n">
-        <v>717.9757752629239</v>
+        <v>717.9757752629234</v>
       </c>
       <c r="Q17" t="n">
-        <v>539.1699063876292</v>
+        <v>539.1699063876289</v>
       </c>
       <c r="R17" t="n">
-        <v>313.6311109455561</v>
+        <v>313.6311109455559</v>
       </c>
       <c r="S17" t="n">
         <v>113.7742055705627</v>
       </c>
       <c r="T17" t="n">
-        <v>21.85613098782833</v>
+        <v>21.85613098782832</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3994267227929789</v>
+        <v>0.3994267227929786</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.671401719717431</v>
+        <v>2.67140171971743</v>
       </c>
       <c r="H18" t="n">
-        <v>25.80011660884994</v>
+        <v>25.80011660884992</v>
       </c>
       <c r="I18" t="n">
-        <v>91.97589254290281</v>
+        <v>91.97589254290276</v>
       </c>
       <c r="J18" t="n">
-        <v>252.3888791422509</v>
+        <v>252.3888791422507</v>
       </c>
       <c r="K18" t="n">
-        <v>431.3727943633188</v>
+        <v>431.3727943633185</v>
       </c>
       <c r="L18" t="n">
-        <v>580.033956730752</v>
+        <v>580.0339567307517</v>
       </c>
       <c r="M18" t="n">
-        <v>676.8722690705088</v>
+        <v>676.8722690705084</v>
       </c>
       <c r="N18" t="n">
-        <v>659.8767803692931</v>
+        <v>694.7870639365083</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>308.7062729782976</v>
       </c>
       <c r="P18" t="n">
-        <v>510.1205617239366</v>
+        <v>510.1205617239363</v>
       </c>
       <c r="Q18" t="n">
-        <v>341.0020861870883</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>49.62011527633033</v>
+        <v>49.6201152763303</v>
       </c>
       <c r="T18" t="n">
-        <v>10.76762359833473</v>
+        <v>10.76762359833472</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1757501131393048</v>
+        <v>0.1757501131393047</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.239613463611249</v>
+        <v>2.239613463611247</v>
       </c>
       <c r="H19" t="n">
-        <v>19.91219970374366</v>
+        <v>19.91219970374365</v>
       </c>
       <c r="I19" t="n">
-        <v>67.35128488750921</v>
+        <v>67.35128488750917</v>
       </c>
       <c r="J19" t="n">
-        <v>158.3406718773153</v>
+        <v>158.3406718773152</v>
       </c>
       <c r="K19" t="n">
-        <v>260.2023642268341</v>
+        <v>260.202364226834</v>
       </c>
       <c r="L19" t="n">
-        <v>332.9694416718033</v>
+        <v>332.9694416718032</v>
       </c>
       <c r="M19" t="n">
-        <v>351.0695904822614</v>
+        <v>351.0695904822612</v>
       </c>
       <c r="N19" t="n">
-        <v>342.7219402997107</v>
+        <v>342.7219402997105</v>
       </c>
       <c r="O19" t="n">
-        <v>316.5591830202519</v>
+        <v>316.5591830202517</v>
       </c>
       <c r="P19" t="n">
-        <v>270.8710683625822</v>
+        <v>270.871068362582</v>
       </c>
       <c r="Q19" t="n">
-        <v>187.5370873938474</v>
+        <v>187.5370873938473</v>
       </c>
       <c r="R19" t="n">
-        <v>100.7011653729203</v>
+        <v>100.7011653729202</v>
       </c>
       <c r="S19" t="n">
-        <v>39.03035463402511</v>
+        <v>39.03035463402509</v>
       </c>
       <c r="T19" t="n">
-        <v>9.569257526338969</v>
+        <v>9.569257526338964</v>
       </c>
       <c r="U19" t="n">
         <v>0.1221607343787955</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.992834034912237</v>
+        <v>4.992834034912234</v>
       </c>
       <c r="H20" t="n">
-        <v>51.13286156004496</v>
+        <v>51.13286156004493</v>
       </c>
       <c r="I20" t="n">
-        <v>192.4862341309542</v>
+        <v>192.4862341309541</v>
       </c>
       <c r="J20" t="n">
-        <v>423.7605476706329</v>
+        <v>423.7605476706326</v>
       </c>
       <c r="K20" t="n">
-        <v>635.107212368468</v>
+        <v>635.1072123684676</v>
       </c>
       <c r="L20" t="n">
-        <v>787.9066569644135</v>
+        <v>787.9066569644131</v>
       </c>
       <c r="M20" t="n">
-        <v>876.697969232784</v>
+        <v>876.6979692327835</v>
       </c>
       <c r="N20" t="n">
-        <v>890.8838589344784</v>
+        <v>890.883858934478</v>
       </c>
       <c r="O20" t="n">
-        <v>841.2363654998198</v>
+        <v>841.2363654998194</v>
       </c>
       <c r="P20" t="n">
-        <v>717.9757752629239</v>
+        <v>717.9757752629234</v>
       </c>
       <c r="Q20" t="n">
-        <v>539.1699063876292</v>
+        <v>539.1699063876289</v>
       </c>
       <c r="R20" t="n">
-        <v>313.6311109455561</v>
+        <v>313.6311109455559</v>
       </c>
       <c r="S20" t="n">
         <v>113.7742055705627</v>
       </c>
       <c r="T20" t="n">
-        <v>21.85613098782833</v>
+        <v>21.85613098782832</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3994267227929789</v>
+        <v>0.3994267227929786</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.671401719717431</v>
+        <v>2.67140171971743</v>
       </c>
       <c r="H21" t="n">
-        <v>25.80011660884994</v>
+        <v>25.80011660884992</v>
       </c>
       <c r="I21" t="n">
-        <v>91.97589254290281</v>
+        <v>91.97589254290276</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>252.3888791422507</v>
       </c>
       <c r="K21" t="n">
-        <v>431.3727943633188</v>
+        <v>431.3727943633185</v>
       </c>
       <c r="L21" t="n">
-        <v>580.033956730752</v>
+        <v>580.0339567307517</v>
       </c>
       <c r="M21" t="n">
-        <v>274.5150565921311</v>
+        <v>676.8722690705084</v>
       </c>
       <c r="N21" t="n">
-        <v>694.7870639365087</v>
+        <v>694.7870639365083</v>
       </c>
       <c r="O21" t="n">
-        <v>635.5944258311908</v>
+        <v>635.5944258311905</v>
       </c>
       <c r="P21" t="n">
-        <v>510.1205617239366</v>
+        <v>183.2324088710433</v>
       </c>
       <c r="Q21" t="n">
-        <v>341.0020861870883</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>49.62011527633033</v>
+        <v>49.6201152763303</v>
       </c>
       <c r="T21" t="n">
-        <v>10.76762359833473</v>
+        <v>10.76762359833472</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1757501131393048</v>
+        <v>0.1757501131393047</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.239613463611249</v>
+        <v>2.239613463611247</v>
       </c>
       <c r="H22" t="n">
-        <v>19.91219970374366</v>
+        <v>19.91219970374365</v>
       </c>
       <c r="I22" t="n">
-        <v>67.35128488750921</v>
+        <v>67.35128488750917</v>
       </c>
       <c r="J22" t="n">
-        <v>158.3406718773153</v>
+        <v>158.3406718773152</v>
       </c>
       <c r="K22" t="n">
-        <v>260.2023642268341</v>
+        <v>260.202364226834</v>
       </c>
       <c r="L22" t="n">
-        <v>332.9694416718033</v>
+        <v>332.9694416718032</v>
       </c>
       <c r="M22" t="n">
-        <v>351.0695904822614</v>
+        <v>351.0695904822612</v>
       </c>
       <c r="N22" t="n">
-        <v>342.7219402997107</v>
+        <v>342.7219402997105</v>
       </c>
       <c r="O22" t="n">
-        <v>316.5591830202519</v>
+        <v>316.5591830202517</v>
       </c>
       <c r="P22" t="n">
-        <v>270.8710683625822</v>
+        <v>270.871068362582</v>
       </c>
       <c r="Q22" t="n">
-        <v>187.5370873938474</v>
+        <v>187.5370873938473</v>
       </c>
       <c r="R22" t="n">
-        <v>100.7011653729203</v>
+        <v>100.7011653729202</v>
       </c>
       <c r="S22" t="n">
-        <v>39.03035463402511</v>
+        <v>39.03035463402509</v>
       </c>
       <c r="T22" t="n">
-        <v>9.569257526338969</v>
+        <v>9.569257526338964</v>
       </c>
       <c r="U22" t="n">
         <v>0.1221607343787955</v>
@@ -32786,7 +32786,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
         <v>443.943509024727</v>
@@ -32801,16 +32801,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P24" t="n">
-        <v>190.4192123527332</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
@@ -33038,10 +33038,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P27" t="n">
-        <v>215.4343416764904</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,10 +33260,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>289.4307967800191</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155584</v>
@@ -33275,16 +33275,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
@@ -33506,13 +33506,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>387.0453914752223</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P33" t="n">
         <v>524.986079689235</v>
@@ -33734,16 +33734,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>249.6234851251522</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879669</v>
+        <v>457.1748150187223</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
@@ -33758,7 +33758,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
         <v>443.943509024727</v>
@@ -33986,10 +33986,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P39" t="n">
-        <v>215.4343416764904</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,16 +34208,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>472.9693813169756</v>
+        <v>287.3850959028139</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160628</v>
@@ -34229,10 +34229,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34375,13 +34375,13 @@
         <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
-        <v>902.245987465432</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N44" t="n">
         <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565702</v>
       </c>
       <c r="P44" t="n">
         <v>738.8984405829625</v>
@@ -34445,10 +34445,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155584</v>
@@ -34460,10 +34460,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>521.5364117268584</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.82047985378968</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,16 +34705,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="N2" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="O2" t="n">
-        <v>21.89844026373758</v>
+        <v>21.89844026373672</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22.82047985378968</v>
+        <v>8.563796649088703</v>
       </c>
       <c r="M3" t="n">
-        <v>8.563796649089033</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="N3" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="O3" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="P3" t="n">
-        <v>13.33464361464854</v>
+        <v>13.33464361464803</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="L4" t="n">
-        <v>22.82047985378968</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>22.8204798537888</v>
       </c>
       <c r="N4" t="n">
-        <v>21.89844026373757</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>22.82047985378968</v>
+        <v>21.89844026373674</v>
       </c>
       <c r="P4" t="n">
-        <v>22.82047985378968</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.00233074738662</v>
+        <v>47.78308755128119</v>
       </c>
       <c r="M5" t="n">
         <v>49.79500702712463</v>
@@ -34948,10 +34948,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O5" t="n">
-        <v>38.71158060333218</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="P5" t="n">
-        <v>42.86418322768703</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690899</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>47.78308755128119</v>
       </c>
       <c r="O7" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="P7" t="n">
-        <v>47.78308755128121</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573883</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692776</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481401</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920411</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526745</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>83.80515100391676</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>85.35689629951827</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184342</v>
+        <v>46.77903017045187</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340917</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>77.48066063832785</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>30.10219503710368</v>
+        <v>107.5828556754318</v>
       </c>
       <c r="M10" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N10" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O10" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>293.5313553889596</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>441.4795769508776</v>
@@ -35738,13 +35738,13 @@
         <v>563.4453518531751</v>
       </c>
       <c r="O15" t="n">
-        <v>291.6612810094368</v>
+        <v>492.9981813867462</v>
       </c>
       <c r="P15" t="n">
         <v>376.1461543096062</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>92.19445501165029</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>242.7146431439466</v>
+        <v>242.7146431439463</v>
       </c>
       <c r="K17" t="n">
-        <v>415.0173613234875</v>
+        <v>415.017361323487</v>
       </c>
       <c r="L17" t="n">
-        <v>552.1402419944263</v>
+        <v>552.1402419944259</v>
       </c>
       <c r="M17" t="n">
-        <v>646.3517360055113</v>
+        <v>646.3517360055108</v>
       </c>
       <c r="N17" t="n">
-        <v>661.4707953378875</v>
+        <v>661.470795337887</v>
       </c>
       <c r="O17" t="n">
-        <v>611.1381540781331</v>
+        <v>611.1381540781326</v>
       </c>
       <c r="P17" t="n">
-        <v>486.7427795076543</v>
+        <v>486.7427795076539</v>
       </c>
       <c r="Q17" t="n">
-        <v>316.8642165131797</v>
+        <v>316.8642165131794</v>
       </c>
       <c r="R17" t="n">
-        <v>98.04557313142396</v>
+        <v>98.04557313142379</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>125.5512524755842</v>
+        <v>125.5512524755841</v>
       </c>
       <c r="K18" t="n">
-        <v>293.5313553889598</v>
+        <v>293.5313553889595</v>
       </c>
       <c r="L18" t="n">
-        <v>441.4795769508779</v>
+        <v>441.4795769508775</v>
       </c>
       <c r="M18" t="n">
-        <v>534.7382351484905</v>
+        <v>534.73823514849</v>
       </c>
       <c r="N18" t="n">
-        <v>528.5350682859598</v>
+        <v>563.445351853175</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>166.1100285338532</v>
       </c>
       <c r="P18" t="n">
-        <v>376.1461543096063</v>
+        <v>376.1461543096061</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.0203121010668</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.59169411285643</v>
+        <v>96.59169411285632</v>
       </c>
       <c r="K19" t="n">
-        <v>269.5430747531652</v>
+        <v>269.543074753165</v>
       </c>
       <c r="L19" t="n">
-        <v>392.1696692843333</v>
+        <v>392.1696692843332</v>
       </c>
       <c r="M19" t="n">
-        <v>422.263669796316</v>
+        <v>422.2636697963157</v>
       </c>
       <c r="N19" t="n">
-        <v>418.4643150311532</v>
+        <v>418.464315031153</v>
       </c>
       <c r="O19" t="n">
-        <v>372.7545132865055</v>
+        <v>372.7545132865053</v>
       </c>
       <c r="P19" t="n">
-        <v>299.7598299796896</v>
+        <v>299.7598299796894</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.9852464943669</v>
+        <v>132.9852464943668</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>242.7146431439466</v>
+        <v>242.7146431439463</v>
       </c>
       <c r="K20" t="n">
-        <v>415.0173613234875</v>
+        <v>415.017361323487</v>
       </c>
       <c r="L20" t="n">
-        <v>552.1402419944263</v>
+        <v>552.1402419944259</v>
       </c>
       <c r="M20" t="n">
-        <v>646.3517360055113</v>
+        <v>646.3517360055108</v>
       </c>
       <c r="N20" t="n">
-        <v>661.4707953378875</v>
+        <v>661.470795337887</v>
       </c>
       <c r="O20" t="n">
-        <v>611.1381540781331</v>
+        <v>611.1381540781326</v>
       </c>
       <c r="P20" t="n">
-        <v>486.7427795076543</v>
+        <v>486.7427795076539</v>
       </c>
       <c r="Q20" t="n">
-        <v>316.8642165131797</v>
+        <v>316.8642165131794</v>
       </c>
       <c r="R20" t="n">
-        <v>98.04557313142396</v>
+        <v>98.04557313142379</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>125.5512524755841</v>
       </c>
       <c r="K21" t="n">
-        <v>293.5313553889598</v>
+        <v>293.5313553889595</v>
       </c>
       <c r="L21" t="n">
-        <v>441.4795769508779</v>
+        <v>441.4795769508775</v>
       </c>
       <c r="M21" t="n">
-        <v>132.3810226701128</v>
+        <v>534.73823514849</v>
       </c>
       <c r="N21" t="n">
-        <v>563.4453518531755</v>
+        <v>563.445351853175</v>
       </c>
       <c r="O21" t="n">
-        <v>492.9981813867464</v>
+        <v>492.9981813867461</v>
       </c>
       <c r="P21" t="n">
-        <v>376.1461543096063</v>
+        <v>49.25800145671304</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.0203121010668</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.59169411285646</v>
+        <v>96.59169411285637</v>
       </c>
       <c r="K22" t="n">
-        <v>269.5430747531652</v>
+        <v>269.5430747531651</v>
       </c>
       <c r="L22" t="n">
-        <v>392.1696692843334</v>
+        <v>392.1696692843333</v>
       </c>
       <c r="M22" t="n">
-        <v>422.263669796316</v>
+        <v>422.2636697963158</v>
       </c>
       <c r="N22" t="n">
-        <v>418.4643150311532</v>
+        <v>418.4643150311531</v>
       </c>
       <c r="O22" t="n">
-        <v>372.7545132865055</v>
+        <v>372.7545132865054</v>
       </c>
       <c r="P22" t="n">
-        <v>299.7598299796896</v>
+        <v>299.7598299796895</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.9852464943669</v>
+        <v>132.9852464943668</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
         <v>306.102070050368</v>
@@ -36449,16 +36449,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P24" t="n">
-        <v>56.44480493840295</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
@@ -36686,10 +36686,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P27" t="n">
-        <v>81.45993426216013</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>151.5893578056601</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356842</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
@@ -37154,13 +37154,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>244.911357553204</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P33" t="n">
         <v>391.0116722749048</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>111.069105345278</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>315.040781096704</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
@@ -37406,7 +37406,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37634,10 +37634,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P39" t="n">
-        <v>81.45993426216013</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>334.4150015371014</v>
+        <v>148.8307161229397</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327296</v>
@@ -37877,10 +37877,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381593</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348834</v>
       </c>
       <c r="P44" t="n">
         <v>507.665444827693</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356842</v>
@@ -38108,10 +38108,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>387.5620043125282</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>277.1256801414976</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817347</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895097</v>
